--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_7_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_7_.xlsx
@@ -423,342 +423,342 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.9473272603030621</v>
+        <v>0.9489610112883385</v>
       </c>
       <c r="B1" t="n">
-        <v>0.1847808224126647</v>
+        <v>0.1758320240729323</v>
       </c>
       <c r="C1" t="n">
-        <v>0.6723938491663034</v>
+        <v>0.7249361535492151</v>
       </c>
       <c r="D1" t="n">
-        <v>0.7136212679793076</v>
+        <v>0.6700277771922065</v>
       </c>
       <c r="E1" t="n">
-        <v>1.570796381335017</v>
+        <v>1.570796383038867</v>
       </c>
       <c r="F1" t="n">
-        <v>-0.6234690754582681</v>
+        <v>-0.6218353262550272</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9928164511749884</v>
+        <v>0.9943554056026752</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1847924097308953</v>
+        <v>0.1769150497322079</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6723610219411528</v>
+        <v>0.721918637663874</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7136425189297332</v>
+        <v>0.6719623020239368</v>
       </c>
       <c r="E2" t="n">
-        <v>1.570796367016619</v>
+        <v>1.570796377815036</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5779798873057078</v>
+        <v>-0.5764409309963349</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.196638184860802</v>
+        <v>1.19775238786194</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1848443285987681</v>
+        <v>0.1817677227138239</v>
       </c>
       <c r="C3" t="n">
-        <v>0.672213934208572</v>
+        <v>0.708398165934528</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7137377372766679</v>
+        <v>0.6806302558279879</v>
       </c>
       <c r="E3" t="n">
-        <v>1.570796302860705</v>
+        <v>1.570796354408809</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.3741581658044566</v>
+        <v>-0.3730439445057301</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.483396012401508</v>
+        <v>1.483912630473311</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1849173735164535</v>
+        <v>0.1885949728642848</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6720069957340039</v>
+        <v>0.6893761459059412</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7138717004503454</v>
+        <v>0.6928252438556356</v>
       </c>
       <c r="E4" t="n">
-        <v>1.570796212599426</v>
+        <v>1.570796321478471</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.08740035540627233</v>
+        <v>-0.08688369594126644</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.687217746087323</v>
+        <v>1.687309612732577</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1849692923843263</v>
+        <v>0.1934476458459009</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6718599080014231</v>
+        <v>0.6758556741765951</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7139669187972801</v>
+        <v>0.7014931976596867</v>
       </c>
       <c r="E5" t="n">
-        <v>1.570796148443512</v>
+        <v>1.570796298072244</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1164213660949793</v>
+        <v>0.116513290549339</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.732706936959248</v>
+        <v>1.732704007046913</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1849808797025569</v>
+        <v>0.1945306715051764</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6718270807762725</v>
+        <v>0.672838158291254</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7139881697477057</v>
+        <v>0.7034277224914169</v>
       </c>
       <c r="E6" t="n">
-        <v>1.570796134125114</v>
+        <v>1.570796292848413</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1619105542475401</v>
+        <v>0.1619076858080303</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.899384632600809</v>
+        <v>1.900875918751935</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03648454082200218</v>
+        <v>0.05335115204042857</v>
       </c>
       <c r="C7" t="n">
-        <v>1.18289791356248</v>
+        <v>1.199938781730575</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3514135960163092</v>
+        <v>0.3175060894984869</v>
       </c>
       <c r="E7" t="n">
-        <v>1.570796335231478</v>
+        <v>1.570796342143612</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3285882746238378</v>
+        <v>0.3300795436886814</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.638520741006903</v>
+        <v>1.639788217465948</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05878679738128223</v>
+        <v>0.07454629022105426</v>
       </c>
       <c r="C8" t="n">
-        <v>1.106148632147423</v>
+        <v>1.120803451180303</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4058606917710165</v>
+        <v>0.3754463736539357</v>
       </c>
       <c r="E8" t="n">
-        <v>1.570796329546644</v>
+        <v>1.570796332944535</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06772438770505351</v>
+        <v>0.06899185004407737</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.360510694198072</v>
+        <v>1.361539650321506</v>
       </c>
       <c r="B9" t="n">
-        <v>0.08255494464039051</v>
+        <v>0.09713455002854179</v>
       </c>
       <c r="C9" t="n">
-        <v>1.024354746499346</v>
+        <v>1.036466685305622</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4638865057189854</v>
+        <v>0.437194977539862</v>
       </c>
       <c r="E9" t="n">
-        <v>1.570796323488156</v>
+        <v>1.570796323140818</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.210285654121368</v>
+        <v>-0.2092567089567264</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.082500647389242</v>
+        <v>1.083291083177064</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1063230918994988</v>
+        <v>0.1197228098360293</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9425608608512694</v>
+        <v>0.9521299194309416</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5219123196669542</v>
+        <v>0.4989435814257883</v>
       </c>
       <c r="E10" t="n">
-        <v>1.570796317429667</v>
+        <v>1.570796313337101</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4882956959477893</v>
+        <v>-0.4875052679575304</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.8216367557953357</v>
+        <v>0.8222033818910772</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1286253484587788</v>
+        <v>0.140917948016655</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8658115794362121</v>
+        <v>0.8729945888806701</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5763594154216616</v>
+        <v>0.5568838655812371</v>
       </c>
       <c r="E11" t="n">
-        <v>1.570796311744834</v>
+        <v>1.570796304138024</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7491595828665731</v>
+        <v>-0.748592961602134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.5934191437306482</v>
+        <v>0.5937899691995894</v>
       </c>
       <c r="B12" t="n">
-        <v>0.148136549125586</v>
+        <v>0.1594605826197359</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7986672244808241</v>
+        <v>0.8037627911880737</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6239926317363989</v>
+        <v>0.6075731089698566</v>
       </c>
       <c r="E12" t="n">
-        <v>1.570796306771439</v>
+        <v>1.570796296090182</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9773771908412165</v>
+        <v>-0.977006367608534</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.4100558737082065</v>
+        <v>0.410269381593821</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1638129797216424</v>
+        <v>0.1743588110469463</v>
       </c>
       <c r="C13" t="n">
-        <v>0.744719554199015</v>
+        <v>0.7481379483041316</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6622639212575638</v>
+        <v>0.6482997879435473</v>
       </c>
       <c r="E13" t="n">
-        <v>1.570796302775525</v>
+        <v>1.570796289624078</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.160740457577478</v>
+        <v>-1.160526949843115</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.2788169155391391</v>
+        <v>0.2789178261977563</v>
       </c>
       <c r="B14" t="n">
-        <v>0.175033102590221</v>
+        <v>0.1850219497284968</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7061074807855859</v>
+        <v>0.7083254688063935</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6896559074712136</v>
+        <v>0.6774491749365862</v>
       </c>
       <c r="E14" t="n">
-        <v>1.570796299915521</v>
+        <v>1.570796284996081</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.291979413394523</v>
+        <v>-1.291878501394849</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.2003881154320393</v>
+        <v>0.2004217376457329</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1817382821033287</v>
+        <v>0.1913942737993129</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6830327884098565</v>
+        <v>0.6845334101078362</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7060254416496176</v>
+        <v>0.6948689371597545</v>
       </c>
       <c r="E15" t="n">
-        <v>1.570796298206374</v>
+        <v>1.570796282230376</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.370408212096044</v>
+        <v>-1.370374587649487</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.167225165092344</v>
+        <v>0.1672303349600339</v>
       </c>
       <c r="B16" t="n">
-        <v>0.18457351016889</v>
+        <v>0.194088756775214</v>
       </c>
       <c r="C16" t="n">
-        <v>0.673275851209298</v>
+        <v>0.6744731406657185</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7129471597978114</v>
+        <v>0.7022347352944619</v>
       </c>
       <c r="E16" t="n">
-        <v>1.570796297483676</v>
+        <v>1.570796281060922</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.403571161841407</v>
+        <v>-1.403565989363758</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.1619075708216884</v>
+        <v>0.1619081784284635</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1850281317379298</v>
+        <v>0.1945208102290914</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6717113512831652</v>
+        <v>0.6728600021904421</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7140570396001484</v>
+        <v>0.7034158221868742</v>
       </c>
       <c r="E17" t="n">
-        <v>1.570796297367793</v>
+        <v>1.570796280873402</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.408888756016757</v>
+        <v>-1.40888814573956</v>
       </c>
     </row>
   </sheetData>

--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_7_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_7_.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,341 +423,392 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
         <v>0.9489610112883385</v>
       </c>
-      <c r="B1" t="n">
+      <c r="C1" t="n">
         <v>0.1758320240729323</v>
       </c>
-      <c r="C1" t="n">
+      <c r="D1" t="n">
         <v>0.7249361535492151</v>
       </c>
-      <c r="D1" t="n">
+      <c r="E1" t="n">
         <v>0.6700277771922065</v>
       </c>
-      <c r="E1" t="n">
+      <c r="F1" t="n">
         <v>1.570796383038867</v>
       </c>
-      <c r="F1" t="n">
+      <c r="G1" t="n">
         <v>-0.6218353262550272</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>0.2202947803889398</v>
+      </c>
+      <c r="B2" t="n">
         <v>0.9943554056026752</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>0.1769150497322079</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.721918637663874</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.6719623020239368</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>1.570796377815036</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>-0.5764409309963349</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>0.4405895607778795</v>
+      </c>
+      <c r="B3" t="n">
         <v>1.19775238786194</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>0.1817677227138239</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.708398165934528</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.6806302558279879</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>1.570796354408809</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>-0.3730439445057301</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>0.6608843411668193</v>
+      </c>
+      <c r="B4" t="n">
         <v>1.483912630473311</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>0.1885949728642848</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.6893761459059412</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.6928252438556356</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>1.570796321478471</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>-0.08688369594126644</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>0.8811791215557591</v>
+      </c>
+      <c r="B5" t="n">
         <v>1.687309612732577</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>0.1934476458459009</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.6758556741765951</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.7014931976596867</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>1.570796298072244</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.116513290549339</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>1.101473901944699</v>
+      </c>
+      <c r="B6" t="n">
         <v>1.732704007046913</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>0.1945306715051764</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.672838158291254</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.7034277224914169</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>1.570796292848413</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.1619076858080303</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>1.264473243688114</v>
+      </c>
+      <c r="B7" t="n">
         <v>1.900875918751935</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>0.05335115204042857</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>1.199938781730575</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.3175060894984869</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>1.570796342143612</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.3300795436886814</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>1.475218784302799</v>
+      </c>
+      <c r="B8" t="n">
         <v>1.639788217465948</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>0.07454629022105426</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>1.120803451180303</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.3754463736539357</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>1.570796332944535</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.06899185004407737</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>1.685964324917485</v>
+      </c>
+      <c r="B9" t="n">
         <v>1.361539650321506</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>0.09713455002854179</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>1.036466685305622</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>0.437194977539862</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>1.570796323140818</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>-0.2092567089567264</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>1.896709865532171</v>
+      </c>
+      <c r="B10" t="n">
         <v>1.083291083177064</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>0.1197228098360293</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>0.9521299194309416</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>0.4989435814257883</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>1.570796313337101</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>-0.4875052679575304</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>2.107455406146856</v>
+      </c>
+      <c r="B11" t="n">
         <v>0.8222033818910772</v>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>0.140917948016655</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0.8729945888806701</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0.5568838655812371</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>1.570796304138024</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>-0.748592961602134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
+        <v>2.318200946761542</v>
+      </c>
+      <c r="B12" t="n">
         <v>0.5937899691995894</v>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>0.1594605826197359</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0.8037627911880737</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.6075731089698566</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>1.570796296090182</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>-0.977006367608534</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>2.528946487376227</v>
+      </c>
+      <c r="B13" t="n">
         <v>0.410269381593821</v>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>0.1743588110469463</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0.7481379483041316</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>0.6482997879435473</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>1.570796289624078</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>-1.160526949843115</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
+        <v>2.739692027990913</v>
+      </c>
+      <c r="B14" t="n">
         <v>0.2789178261977563</v>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>0.1850219497284968</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>0.7083254688063935</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0.6774491749365862</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>1.570796284996081</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>-1.291878501394849</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
+        <v>2.950437568605599</v>
+      </c>
+      <c r="B15" t="n">
         <v>0.2004217376457329</v>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>0.1913942737993129</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>0.6845334101078362</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>0.6948689371597545</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>1.570796282230376</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>-1.370374587649487</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
+        <v>3.161183109220284</v>
+      </c>
+      <c r="B16" t="n">
         <v>0.1672303349600339</v>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>0.194088756775214</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>0.6744731406657185</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>0.7022347352944619</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>1.570796281060922</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>-1.403565989363758</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
+        <v>3.37192864983497</v>
+      </c>
+      <c r="B17" t="n">
         <v>0.1619081784284635</v>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>0.1945208102290914</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>0.6728600021904421</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>0.7034158221868742</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>1.570796280873402</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>-1.40888814573956</v>
       </c>
     </row>

--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_7_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_7_.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,390 +426,137 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>0.9489610112883385</v>
+        <v>-1.732704007046913</v>
       </c>
       <c r="C1" t="n">
-        <v>0.1758320240729323</v>
+        <v>1.37626565528972</v>
       </c>
       <c r="D1" t="n">
-        <v>0.7249361535492151</v>
+        <v>0.672838158291254</v>
       </c>
       <c r="E1" t="n">
-        <v>0.6700277771922065</v>
+        <v>0.7034277224914169</v>
       </c>
       <c r="F1" t="n">
-        <v>1.570796383038867</v>
+        <v>3.394648340204753e-08</v>
       </c>
       <c r="G1" t="n">
-        <v>-0.6218353262550272</v>
+        <v>0.161907685808031</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2202947803889398</v>
+        <v>0.2212268479722121</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9943554056026752</v>
+        <v>-1.778290465355663</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1769150497322079</v>
+        <v>1.377354323596729</v>
       </c>
       <c r="D2" t="n">
-        <v>0.721918637663874</v>
+        <v>0.6758680428538398</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6719623020239368</v>
+        <v>0.7014865303281086</v>
       </c>
       <c r="F2" t="n">
-        <v>1.570796377815036</v>
+        <v>3.758707478596079e-08</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.5764409309963349</v>
+        <v>0.2074941448287797</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.4405895607778795</v>
+        <v>0.4424536959444241</v>
       </c>
       <c r="B3" t="n">
-        <v>1.19775238786194</v>
+        <v>-1.982548021645145</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1817677227138239</v>
+        <v>1.382232279381171</v>
       </c>
       <c r="D3" t="n">
-        <v>0.708398165934528</v>
+        <v>0.6894439344574702</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6806302558279879</v>
+        <v>0.6927887024582571</v>
       </c>
       <c r="F3" t="n">
-        <v>1.570796354408809</v>
+        <v>5.38993372156682e-08</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3730439445057301</v>
+        <v>0.411751704308488</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.6608843411668193</v>
+        <v>0.6636805439166362</v>
       </c>
       <c r="B4" t="n">
-        <v>1.483912630473311</v>
+        <v>-2.269919010210249</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1885949728642848</v>
+        <v>1.389095100034745</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6893761459059412</v>
+        <v>0.708543924987362</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6928252438556356</v>
+        <v>0.680551684456407</v>
       </c>
       <c r="F4" t="n">
-        <v>1.570796321478471</v>
+        <v>7.684914193895054e-08</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.08688369594126644</v>
+        <v>0.6991226973619369</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8811791215557591</v>
+        <v>0.8849073918888483</v>
       </c>
       <c r="B5" t="n">
-        <v>1.687309612732577</v>
+        <v>-2.474176566499732</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1934476458459009</v>
+        <v>1.393973055819188</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6758556741765951</v>
+        <v>0.7221198165909923</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7014931976596867</v>
+        <v>0.6718538565865555</v>
       </c>
       <c r="F5" t="n">
-        <v>1.570796298072244</v>
+        <v>9.316140436865794e-08</v>
       </c>
       <c r="G5" t="n">
-        <v>0.116513290549339</v>
+        <v>0.9033802568416449</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.101473901944699</v>
+        <v>1.10613423986106</v>
       </c>
       <c r="B6" t="n">
-        <v>1.732704007046913</v>
+        <v>-2.519763024808483</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1945306715051764</v>
+        <v>1.395061724126196</v>
       </c>
       <c r="D6" t="n">
-        <v>0.672838158291254</v>
+        <v>0.7251497011535781</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7034277224914169</v>
+        <v>0.6699126644232472</v>
       </c>
       <c r="F6" t="n">
-        <v>1.570796292848413</v>
+        <v>9.68019957525712e-08</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1619076858080303</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1.264473243688114</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1.900875918751935</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.05335115204042857</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.199938781730575</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.3175060894984869</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.570796342143612</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.3300795436886814</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1.475218784302799</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.639788217465948</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07454629022105426</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.120803451180303</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.3754463736539357</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.570796332944535</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.06899185004407737</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>1.685964324917485</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.361539650321506</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.09713455002854179</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.036466685305622</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.437194977539862</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.570796323140818</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-0.2092567089567264</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>1.896709865532171</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.083291083177064</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1197228098360293</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.9521299194309416</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.4989435814257883</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.570796313337101</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-0.4875052679575304</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2.107455406146856</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.8222033818910772</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.140917948016655</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.8729945888806701</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.5568838655812371</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.570796304138024</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.748592961602134</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2.318200946761542</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.5937899691995894</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1594605826197359</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.8037627911880737</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.6075731089698566</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.570796296090182</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0.977006367608534</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>2.528946487376227</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.410269381593821</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1743588110469463</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.7481379483041316</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.6482997879435473</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.570796289624078</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-1.160526949843115</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2.739692027990913</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.2789178261977563</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1850219497284968</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.7083254688063935</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.6774491749365862</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.570796284996081</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-1.291878501394849</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>2.950437568605599</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.2004217376457329</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1913942737993129</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.6845334101078362</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.6948689371597545</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.570796282230376</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-1.370374587649487</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3.161183109220284</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.1672303349600339</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.194088756775214</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.6744731406657185</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.7022347352944619</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.570796281060922</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-1.403565989363758</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>3.37192864983497</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.1619081784284635</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1945208102290914</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.6728600021904421</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.7034158221868742</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.570796280873402</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-1.40888814573956</v>
+        <v>0.9489667158623929</v>
       </c>
     </row>
   </sheetData>

--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_7_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_7_.xlsx
@@ -435,10 +435,10 @@
         <v>0.672838158291254</v>
       </c>
       <c r="E1" t="n">
-        <v>0.7034277224914169</v>
+        <v>0.8673686043034796</v>
       </c>
       <c r="F1" t="n">
-        <v>3.394648340204753e-08</v>
+        <v>-1.570796292848413</v>
       </c>
       <c r="G1" t="n">
         <v>0.161907685808031</v>
@@ -458,10 +458,10 @@
         <v>0.6758680428538398</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7014865303281086</v>
+        <v>0.869309796466788</v>
       </c>
       <c r="F2" t="n">
-        <v>3.758707478596079e-08</v>
+        <v>-1.570796289207822</v>
       </c>
       <c r="G2" t="n">
         <v>0.2074941448287797</v>
@@ -481,10 +481,10 @@
         <v>0.6894439344574702</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6927887024582571</v>
+        <v>0.8780076243366395</v>
       </c>
       <c r="F3" t="n">
-        <v>5.38993372156682e-08</v>
+        <v>-1.570796272895559</v>
       </c>
       <c r="G3" t="n">
         <v>0.411751704308488</v>
@@ -504,10 +504,10 @@
         <v>0.708543924987362</v>
       </c>
       <c r="E4" t="n">
-        <v>0.680551684456407</v>
+        <v>0.8902446423384895</v>
       </c>
       <c r="F4" t="n">
-        <v>7.684914193895054e-08</v>
+        <v>-1.570796249945755</v>
       </c>
       <c r="G4" t="n">
         <v>0.6991226973619369</v>
@@ -527,10 +527,10 @@
         <v>0.7221198165909923</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6718538565865555</v>
+        <v>0.8989424702083411</v>
       </c>
       <c r="F5" t="n">
-        <v>9.316140436865794e-08</v>
+        <v>-1.570796233633492</v>
       </c>
       <c r="G5" t="n">
         <v>0.9033802568416449</v>
@@ -550,10 +550,10 @@
         <v>0.7251497011535781</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6699126644232472</v>
+        <v>0.9008836623716494</v>
       </c>
       <c r="F6" t="n">
-        <v>9.68019957525712e-08</v>
+        <v>-1.570796229992901</v>
       </c>
       <c r="G6" t="n">
         <v>0.9489667158623929</v>

--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_7_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_7_.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,19 +426,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>-1.732704007046913</v>
+        <v>1.732704007046913</v>
       </c>
       <c r="C1" t="n">
-        <v>1.37626565528972</v>
+        <v>0.1945306715051764</v>
       </c>
       <c r="D1" t="n">
-        <v>0.672838158291254</v>
+        <v>-0.672838158291254</v>
       </c>
       <c r="E1" t="n">
-        <v>0.8673686043034796</v>
+        <v>0.7034277224914169</v>
       </c>
       <c r="F1" t="n">
-        <v>-1.570796292848413</v>
+        <v>1.570796292848413</v>
       </c>
       <c r="G1" t="n">
         <v>0.161907685808031</v>
@@ -446,116 +446,369 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2212268479722121</v>
+        <v>0.2074001699739488</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.778290465355663</v>
+        <v>1.734449897926843</v>
       </c>
       <c r="C2" t="n">
-        <v>1.377354323596729</v>
+        <v>0.1944889771920187</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6758680428538398</v>
+        <v>-0.6729541981860235</v>
       </c>
       <c r="E2" t="n">
-        <v>0.869309796466788</v>
+        <v>0.7033533778325018</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.570796289207822</v>
+        <v>1.570796292708984</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2074941448287797</v>
+        <v>0.1636535767152294</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.4424536959444241</v>
+        <v>0.4148003399478976</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.982548021645145</v>
+        <v>1.745338072090327</v>
       </c>
       <c r="C3" t="n">
-        <v>1.382232279381171</v>
+        <v>0.1942289523826182</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6894439344574702</v>
+        <v>-0.6736778760508239</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8780076243366395</v>
+        <v>0.7028897305314603</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.570796272895559</v>
+        <v>1.570796291839441</v>
       </c>
       <c r="G3" t="n">
-        <v>0.411751704308488</v>
+        <v>0.1745417510487718</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.6636805439166362</v>
+        <v>0.6222005099218464</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.269919010210249</v>
+        <v>1.771088086074367</v>
       </c>
       <c r="C4" t="n">
-        <v>1.389095100034745</v>
+        <v>0.1936140060768625</v>
       </c>
       <c r="D4" t="n">
-        <v>0.708543924987362</v>
+        <v>-0.6753893397782359</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8902446423384895</v>
+        <v>0.7017932267185878</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.570796249945755</v>
+        <v>1.570796289783013</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6991226973619369</v>
+        <v>0.2002917654349918</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8849073918888483</v>
+        <v>0.8296006798957951</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.474176566499732</v>
+        <v>1.814176913182388</v>
       </c>
       <c r="C5" t="n">
-        <v>1.393973055819188</v>
+        <v>0.1925849846920256</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7221198165909923</v>
+        <v>-0.6782532203453618</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8989424702083411</v>
+        <v>0.6999583903085791</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.570796233633492</v>
+        <v>1.570796286341886</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9033802568416449</v>
+        <v>0.2433805932160021</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.10613423986106</v>
+        <v>1.037000849869744</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.519763024808483</v>
+        <v>1.87437937402317</v>
       </c>
       <c r="C6" t="n">
-        <v>1.395061724126196</v>
+        <v>0.1911472658265371</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7251497011535781</v>
+        <v>-0.6822545512997377</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9008836623716494</v>
+        <v>0.6973948100364618</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.570796229992901</v>
+        <v>1.570796281534042</v>
       </c>
       <c r="G6" t="n">
+        <v>0.3035830549970654</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1.244401019843693</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.949308567049777</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1893578520237512</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.6872346882452469</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6942041264935301</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.570796275550103</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.3785122491939638</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.451801189817642</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2.03495629909848</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1873124645357151</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.6929272283280338</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6905570191632778</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.570796268710169</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.4641599825803687</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.65920135979159</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.126233515927697</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1851326370869383</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.6989939297224161</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.686670193457332</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.570796261420657</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.5554372008352122</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.866601529765539</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.217510732756915</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1829528096381616</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.7050606311167984</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6827833677513863</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.570796254131145</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.6467144190900558</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2.074001699739488</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.303158464805618</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1809074221501255</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.7107531711995853</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.679136260421134</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.57079624729121</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.732362152476461</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2.281401869713437</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2.378087657832224</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1791180083473395</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.7157333081450945</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6759455768782023</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.570796241307272</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.8072913466733589</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2.488802039687386</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2.438290118673007</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1776802894818511</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.7197346390994703</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.673381996606085</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.570796236499428</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.8674938084544226</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2.696202209661334</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2.481378945781028</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1766512680970142</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.7225985196665963</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6715471601960763</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.570796233058301</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.9105826362354328</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2.903602379635283</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2.507128959765068</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1760363217912584</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.7243099833940083</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6704506563832038</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.570796231001873</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9363326506216527</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3.111002549609232</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2.518017133928552</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1757762969818579</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.7250336612588086</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6699870090821622</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.57079623013233</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.947220824955195</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3.31840271958318</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2.519763024808483</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1757346026687003</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.7251497011535781</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6699126644232472</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.570796229992901</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.9489667158623929</v>
       </c>
     </row>

--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_7_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_7_.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,390 +426,482 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>1.732704007046913</v>
+        <v>0.160643478225246</v>
       </c>
       <c r="C1" t="n">
-        <v>0.1945306715051764</v>
+        <v>1.643497808664239</v>
       </c>
       <c r="D1" t="n">
-        <v>-0.672838158291254</v>
+        <v>2.425686582056998</v>
       </c>
       <c r="E1" t="n">
-        <v>0.7034277224914169</v>
+        <v>0.993012163455795</v>
       </c>
       <c r="F1" t="n">
-        <v>1.570796292848413</v>
+        <v>0.8705822574316721</v>
       </c>
       <c r="G1" t="n">
-        <v>0.161907685808031</v>
+        <v>-0.7214961480642741</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2074001699739488</v>
+        <v>0.2027524957959749</v>
       </c>
       <c r="B2" t="n">
-        <v>1.734449897926843</v>
+        <v>0.1594463407190027</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1944889771920187</v>
+        <v>1.641944367773799</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.6729541981860235</v>
+        <v>2.42195066146707</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7033533778325018</v>
+        <v>0.9911283278256399</v>
       </c>
       <c r="F2" t="n">
-        <v>1.570796292708984</v>
+        <v>0.8685137705470475</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1636535767152294</v>
+        <v>-0.7209638783945521</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.4148003399478976</v>
+        <v>0.4055049915919499</v>
       </c>
       <c r="B3" t="n">
-        <v>1.745338072090327</v>
+        <v>0.1517951267489867</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1942289523826182</v>
+        <v>1.632015927155622</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.6736778760508239</v>
+        <v>2.398073431274668</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7028897305314603</v>
+        <v>0.9790882493755978</v>
       </c>
       <c r="F3" t="n">
-        <v>1.570796291839441</v>
+        <v>0.8552935383966918</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1745417510487718</v>
+        <v>-0.7175620059182882</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.6222005099218464</v>
+        <v>0.6082574873879247</v>
       </c>
       <c r="B4" t="n">
-        <v>1.771088086074367</v>
+        <v>0.1331351577296529</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1936140060768625</v>
+        <v>1.60780220171656</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.6753893397782359</v>
+        <v>2.339841054372942</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7017932267185878</v>
+        <v>0.9497246095991423</v>
       </c>
       <c r="F4" t="n">
-        <v>1.570796289783013</v>
+        <v>0.8230517107180021</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2002917654349918</v>
+        <v>-0.7092654355617967</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8296006798957951</v>
+        <v>0.8110099831838997</v>
       </c>
       <c r="B5" t="n">
-        <v>1.814176913182388</v>
+        <v>0.1007723897316787</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1925849846920256</v>
+        <v>1.56580732069939</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6782532203453618</v>
+        <v>2.238846197324222</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6999583903085791</v>
+        <v>0.8987980158477319</v>
       </c>
       <c r="F5" t="n">
-        <v>1.570796286341886</v>
+        <v>0.7671333548024599</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2433805932160021</v>
+        <v>-0.6948763451325568</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.037000849869744</v>
+        <v>1.013762478979875</v>
       </c>
       <c r="B6" t="n">
-        <v>1.87437937402317</v>
+        <v>0.05364083414993651</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1911472658265371</v>
+        <v>1.504648025890822</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6822545512997377</v>
+        <v>2.091762217401372</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6973948100364618</v>
+        <v>0.8246310105985624</v>
       </c>
       <c r="F6" t="n">
-        <v>1.570796281534042</v>
+        <v>0.6856965908013709</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3035830549970654</v>
+        <v>-0.6739207762090678</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.244401019843693</v>
+        <v>1.216514974775849</v>
       </c>
       <c r="B7" t="n">
-        <v>1.949308567049777</v>
+        <v>-0.007930021628534151</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1893578520237512</v>
+        <v>1.424751869829509</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6872346882452469</v>
+        <v>1.899617349629145</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6942041264935301</v>
+        <v>0.7277420807223189</v>
       </c>
       <c r="F7" t="n">
-        <v>1.570796275550103</v>
+        <v>0.5793107270316045</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3785122491939638</v>
+        <v>-0.6465452250307026</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.451801189817642</v>
+        <v>1.419267470571824</v>
       </c>
       <c r="B8" t="n">
-        <v>2.03495629909848</v>
+        <v>-0.08244779355655482</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1873124645357151</v>
+        <v>1.328055414014057</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.6929272283280338</v>
+        <v>1.66706889382553</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6905570191632778</v>
+        <v>0.6104796667509271</v>
       </c>
       <c r="F8" t="n">
-        <v>1.570796268710169</v>
+        <v>0.4505543952813323</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4641599825803687</v>
+        <v>-0.6134132333875625</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.65920135979159</v>
+        <v>1.622019966367799</v>
       </c>
       <c r="B9" t="n">
-        <v>2.126233515927697</v>
+        <v>-0.1674897802588354</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1851326370869383</v>
+        <v>1.217702427111034</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6989939297224161</v>
+        <v>1.401677401643105</v>
       </c>
       <c r="E9" t="n">
-        <v>0.686670193457332</v>
+        <v>0.4766561721453052</v>
       </c>
       <c r="F9" t="n">
-        <v>1.570796261420657</v>
+        <v>0.3036136861157688</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5554372008352122</v>
+        <v>-0.5756019795103315</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.866601529765539</v>
+        <v>1.824772462163774</v>
       </c>
       <c r="B10" t="n">
-        <v>2.217510732756915</v>
+        <v>-0.2599355423640024</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1829528096381616</v>
+        <v>1.097742083162978</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.7050606311167984</v>
+        <v>1.113180863610395</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6827833677513863</v>
+        <v>0.3311819725631164</v>
       </c>
       <c r="F10" t="n">
-        <v>1.570796254131145</v>
+        <v>0.1438802841829102</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6467144190900558</v>
+        <v>-0.5344988689601304</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.074001699739488</v>
+        <v>2.027524957959749</v>
       </c>
       <c r="B11" t="n">
-        <v>2.303158464805618</v>
+        <v>-0.3561994818366262</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1809074221501255</v>
+        <v>0.9728271597964129</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.7107531711995853</v>
+        <v>0.8127688961732198</v>
       </c>
       <c r="E11" t="n">
-        <v>0.679136260421134</v>
+        <v>0.1796994251265206</v>
       </c>
       <c r="F11" t="n">
-        <v>1.57079624729121</v>
+        <v>-0.02245039648072578</v>
       </c>
       <c r="G11" t="n">
-        <v>0.732362152476461</v>
+        <v>-0.4916981255183716</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.281401869713437</v>
+        <v>2.230277453755724</v>
       </c>
       <c r="B12" t="n">
-        <v>2.378087657832224</v>
+        <v>-0.45246342130925</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1791180083473395</v>
+        <v>0.847912236429847</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.7157333081450945</v>
+        <v>0.5123569287360439</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6759455768782023</v>
+        <v>0.02821687768992442</v>
       </c>
       <c r="F12" t="n">
-        <v>1.570796241307272</v>
+        <v>-0.188781077144362</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8072913466733589</v>
+        <v>-0.4488973820766127</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.488802039687386</v>
+        <v>2.433029949551699</v>
       </c>
       <c r="B13" t="n">
-        <v>2.438290118673007</v>
+        <v>-0.5449091834144169</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1776802894818511</v>
+        <v>0.7279518924817923</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.7197346390994703</v>
+        <v>0.2238603907033352</v>
       </c>
       <c r="E13" t="n">
-        <v>0.673381996606085</v>
+        <v>-0.117257321892264</v>
       </c>
       <c r="F13" t="n">
-        <v>1.570796236499428</v>
+        <v>-0.3485144790772202</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8674938084544226</v>
+        <v>-0.4077942715264117</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.696202209661334</v>
+        <v>2.635782445347674</v>
       </c>
       <c r="B14" t="n">
-        <v>2.481378945781028</v>
+        <v>-0.6299511701166973</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1766512680970142</v>
+        <v>0.6175989055787692</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.7225985196665963</v>
+        <v>-0.04153110147908912</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6715471601960763</v>
+        <v>-0.2510808164978852</v>
       </c>
       <c r="F14" t="n">
-        <v>1.570796233058301</v>
+        <v>-0.4954551882427832</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9105826362354328</v>
+        <v>-0.3699830176491807</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.903602379635283</v>
+        <v>2.838534941143649</v>
       </c>
       <c r="B15" t="n">
-        <v>2.507128959765068</v>
+        <v>-0.7044689420447179</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1760363217912584</v>
+        <v>0.5209024497633175</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.7243099833940083</v>
+        <v>-0.2740795572827044</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6704506563832038</v>
+        <v>-0.3683432304692774</v>
       </c>
       <c r="F15" t="n">
-        <v>1.570796231001873</v>
+        <v>-0.6242115199930548</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9363326506216527</v>
+        <v>-0.3368510260060406</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3.111002549609232</v>
+        <v>3.041287436939624</v>
       </c>
       <c r="B16" t="n">
-        <v>2.518017133928552</v>
+        <v>-0.7660397978231892</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1757762969818579</v>
+        <v>0.4410062937020038</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.7250336612588086</v>
+        <v>-0.4662244250549326</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6699870090821622</v>
+        <v>-0.4652321603455215</v>
       </c>
       <c r="F16" t="n">
-        <v>1.57079623013233</v>
+        <v>-0.7305973837628227</v>
       </c>
       <c r="G16" t="n">
-        <v>0.947220824955195</v>
+        <v>-0.3094754748276752</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.31840271958318</v>
+        <v>3.244039932735599</v>
       </c>
       <c r="B17" t="n">
-        <v>2.519763024808483</v>
+        <v>-0.8131713534049316</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1757346026687003</v>
+        <v>0.3798469988934352</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.7251497011535781</v>
+        <v>-0.6133084049777837</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6699126644232472</v>
+        <v>-0.539399165594692</v>
       </c>
       <c r="F17" t="n">
-        <v>1.570796229992901</v>
+        <v>-0.8120341477639118</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9489667158623929</v>
+        <v>-0.2885199059041859</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3.446792428531574</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.8455341214029064</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.3378521178762659</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.7143032620265046</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.5903257593461012</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.8679525036794536</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.2741308154749461</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3.649544924327549</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.8641940904222407</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3136383924372019</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.7725356389282321</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.6196893991225588</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.9001943313581454</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.265834245118454</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3.852297420123524</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.8718453043922552</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.3037099518190274</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.796412869120632</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.6317294775725978</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.9134145635084984</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.2624323726421907</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4.055049915919499</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.8730424418984986</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.3021565109285864</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.8001487897105606</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.6336133132027547</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.9154830503931236</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.2619001029724688</v>
       </c>
     </row>
   </sheetData>
